--- a/ApolloQA/Data/RatingManual/GA/VA00066.BusinessExperienceFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00066.BusinessExperienceFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.BusinessExperienceFactors" sheetId="1" r:id="R99de13b5d0524d9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00066.BusinessExperienceFactors" sheetId="1" r:id="R986af236889f460c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,16 +12,92 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Business Experience Lower Bound</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Business Experience Upper Bound</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>Business Experience Factor</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>Class Code</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Lower Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Class Code_Fleet Size Factor</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0631</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0631</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0631</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0631</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0631</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>0</x:v>
       </x:c>
@@ -34,16 +110,22 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>1</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9789</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>2</x:v>
       </x:c>
@@ -51,10 +133,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9789</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9992</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>3</x:v>
       </x:c>
@@ -62,10 +147,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9984</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>4</x:v>
       </x:c>
@@ -73,10 +161,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9976</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>5</x:v>
       </x:c>
@@ -84,10 +175,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9200</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9967</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>6</x:v>
       </x:c>
@@ -95,10 +189,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8840</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9959</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>7</x:v>
       </x:c>
@@ -106,10 +203,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8840</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9951</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>8</x:v>
       </x:c>
@@ -117,10 +217,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8840</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9943</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>9</x:v>
       </x:c>
@@ -128,18 +231,581 @@
         <x:v>9</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8840</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>0.9935</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>10</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9927</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9903</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9862</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9822</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8840</x:v>
+        <x:v>0.9766</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9976</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9952</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9927</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9903</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9879</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9856</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9832</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9808</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9784</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9713</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9596</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9480</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9321</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9976</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9952</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9927</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9903</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9879</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9856</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9832</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9808</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9784</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9713</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9596</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9480</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9321</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9995</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9991</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9986</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.9982</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
